--- a/doc/30_外部設計書/02_DB定義書 _C1どすこい！もぐもりカーニバル.xlsx
+++ b/doc/30_外部設計書/02_DB定義書 _C1どすこい！もぐもりカーニバル.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27823"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/sugimoto-tomoka-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9D275A-9E43-4A17-860D-4A938905DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF6BAEA-3DDD-4E61-8CAD-0BF5E549E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="cards" sheetId="4" r:id="rId2"/>
-    <sheet name="users" sheetId="2" r:id="rId3"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="cards" sheetId="4" r:id="rId3"/>
     <sheet name="ユーザー基本情報" sheetId="6" r:id="rId4"/>
     <sheet name="推し力士" sheetId="9" r:id="rId5"/>
-    <sheet name="投稿" sheetId="10" r:id="rId6"/>
-    <sheet name="力士情報" sheetId="8" r:id="rId7"/>
-    <sheet name="白星" sheetId="11" r:id="rId8"/>
-    <sheet name="返信" sheetId="12" r:id="rId9"/>
+    <sheet name="力士情報" sheetId="8" r:id="rId6"/>
+    <sheet name="白星" sheetId="11" r:id="rId7"/>
+    <sheet name="返信" sheetId="12" r:id="rId8"/>
+    <sheet name="投稿" sheetId="10" r:id="rId9"/>
     <sheet name="お店" sheetId="13" r:id="rId10"/>
     <sheet name="レシピ" sheetId="14" r:id="rId11"/>
     <sheet name="フォロー中" sheetId="15" r:id="rId12"/>
     <sheet name="メモ" sheetId="5" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="305">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -276,6 +277,193 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル物理名</t>
+    <rPh sb="4" eb="6">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※AIはAuto Incrementの略です。</t>
+    <rPh sb="19" eb="20">
+      <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載済みの備考はあくまで例です。自分たちの中で覚えておくべきことを記載します。</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理キーなのでuniqueになる。</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー氏名</t>
+    <rPh sb="4" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化して格納する。今回はpepperを利用するためsaltは不要。</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールはもっと長いものもあるが、今回は100文字までのメールアドレスに限定する。</t>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>名刺データ</t>
     <rPh sb="0" eb="2">
       <t>メイシ</t>
@@ -283,85 +471,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル物理名</t>
-    <rPh sb="4" eb="6">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cards</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ型</t>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主キー</t>
-    <rPh sb="0" eb="1">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Not null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デフォルト値</t>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理キーなのでuniqueになる。</t>
-    <rPh sb="0" eb="2">
-      <t>ロンリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -416,10 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mail_address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成日時</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -480,111 +586,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>users</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※AIはAuto Incrementの略です。</t>
-    <rPh sb="19" eb="20">
-      <t>リャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記載済みの備考はあくまで例です。自分たちの中で覚えておくべきことを記載します。</t>
-    <rPh sb="0" eb="2">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オボ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー氏名</t>
-    <rPh sb="4" eb="6">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハッシュ化して格納する。今回はpepperを利用するためsaltは不要。</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールはもっと長いものもあるが、今回は100文字までのメールアドレスに限定する。</t>
-    <rPh sb="7" eb="8">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -668,15 +669,13 @@
     <t>アイコン</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>メッセージ</t>
   </si>
   <si>
-    <t>マイページリンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mypage_link</t>
-    <phoneticPr fontId="1"/>
+    <t>message</t>
   </si>
   <si>
     <t>timestamp</t>
@@ -748,6 +747,77 @@
   <si>
     <t>timestamp</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力士情報</t>
+    <rPh sb="0" eb="4">
+      <t>リキシジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rikishies</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>相撲協会</t>
+  </si>
+  <si>
+    <t>rikishi_profile</t>
+  </si>
+  <si>
+    <t>力士予定</t>
+  </si>
+  <si>
+    <t>calender</t>
+  </si>
+  <si>
+    <t>杉本朋華</t>
+    <rPh sb="0" eb="2">
+      <t>スギモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contribution_id</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信テキスト</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
   </si>
   <si>
     <t>contribution_pic</t>
@@ -784,10 +854,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>力士情報ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -800,7 +866,6 @@
   </si>
   <si>
     <t>pic_movie</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>保存先のパス</t>
@@ -808,70 +873,6 @@
   </si>
   <si>
     <t>テキスト</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>力士情報</t>
-    <rPh sb="0" eb="4">
-      <t>リキシジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rikishies</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>相撲協会</t>
-  </si>
-  <si>
-    <t>力士部屋リンク</t>
-  </si>
-  <si>
-    <t>rikishi_profile</t>
-  </si>
-  <si>
-    <t>力士予定</t>
-  </si>
-  <si>
-    <t>calender</t>
-  </si>
-  <si>
-    <t>杉本朋華</t>
-    <rPh sb="0" eb="2">
-      <t>スギモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿ID</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>contribution_id</t>
-  </si>
-  <si>
-    <t>返信テキスト</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>お店の名前</t>
@@ -895,7 +896,6 @@
   </si>
   <si>
     <t>shop_pic</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>料理の画像</t>
@@ -909,7 +909,6 @@
   </si>
   <si>
     <t>food_pic</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>お店のリンク</t>
@@ -934,7 +933,6 @@
   </si>
   <si>
     <t>venue_name</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>力士情報ID</t>
@@ -965,7 +963,6 @@
   </si>
   <si>
     <t>recipi_name</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レシピのリンク</t>
@@ -1232,20 +1229,245 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>マイページリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力士部屋リンク</t>
+  </si>
+  <si>
     <t>user_id（白星を付けた人のID）</t>
   </si>
   <si>
     <t>user_id（フォローしている相手のID）</t>
   </si>
   <si>
-    <t>venue_name</t>
+    <t>mypage_link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pic_movie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop_pic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>food_pic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipi_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>mypage</t>
+  </si>
+  <si>
+    <t>user_id,user_name,icon,message,contributions(id,pic_movie),favorites.id(rikishies.pic,rikishies.rikishi_name)</t>
+  </si>
+  <si>
+    <t>初期表示</t>
+  </si>
+  <si>
+    <t>userpage</t>
+  </si>
+  <si>
+    <t>reply</t>
+  </si>
+  <si>
+    <t>contributions.(id,pic_movie,text,created_at,user_id,user_name,icon),replies.(id,user_id,text)</t>
+  </si>
+  <si>
+    <t>user_id,user_name,replies.text,contributions_id</t>
+  </si>
+  <si>
+    <t>返信の投稿</t>
+  </si>
+  <si>
+    <t>user_id, contribution_id</t>
+  </si>
+  <si>
+    <t>白星登録</t>
+  </si>
+  <si>
+    <t>白星削除</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>user_id,password</t>
+  </si>
+  <si>
+    <t>regist</t>
+  </si>
+  <si>
+    <t>user_id,password,user_name,icon,ask,question</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>user_id,user_name,icon,message</t>
+  </si>
+  <si>
+    <t>変更</t>
+  </si>
+  <si>
+    <t>DAO上ではupdated_atのみCURRENT＿TIMESTAMPを入れて、created_atは""にする</t>
+  </si>
+  <si>
+    <t>usersearch</t>
+  </si>
+  <si>
+    <t>user_id,user_name,icon,follow_user_id</t>
+  </si>
+  <si>
+    <t>user_id,follow_user_id</t>
+  </si>
+  <si>
+    <t>お気に入り登録</t>
+  </si>
+  <si>
+    <t>お気に入り削除</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>検索結果の表示</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>chanko</t>
+  </si>
+  <si>
+    <t>rikishi_id,rikishi_name, sumo_stable_name, recipies.category</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>検索内容の表示</t>
+  </si>
+  <si>
+    <t>recipes.recipe_pic, recipes.category, recipes.recipi_name, recipe_id(rikishi_id(sumo_stable_name))</t>
+  </si>
+  <si>
+    <t>user_id, pic, rikishi_name, rikishi_profile</t>
+  </si>
+  <si>
+    <t>standBy</t>
+  </si>
+  <si>
+    <t>rikishi_face_pic、rikishi_name、sumo_association_link、favorites.user_id,favorites.rikishi_id</t>
+  </si>
+  <si>
+    <t>favorites.user_id,favorites.rikishi_id</t>
+  </si>
+  <si>
+    <t>推し力士の削除</t>
+  </si>
+  <si>
+    <t>rikishi</t>
+  </si>
+  <si>
+    <t>rikishi_name, sumo_stable_name</t>
+  </si>
+  <si>
+    <t>推し力士解除</t>
+  </si>
+  <si>
+    <t>推し力士登録</t>
+  </si>
+  <si>
+    <t>user_id, rikishi_id, pic_movie, created_at</t>
+  </si>
+  <si>
+    <t>各部屋の中での投稿表示</t>
+  </si>
+  <si>
+    <t>contribution</t>
+  </si>
+  <si>
+    <t>user_id, rikishi_id, pic_movie, created_at, text, created_at</t>
+  </si>
+  <si>
+    <t>投稿の登録</t>
+  </si>
+  <si>
+    <t>user_id, contribution_id(users.user_name,users.icon),contributions.pic_movie</t>
+  </si>
+  <si>
+    <t>白星一覧から削除</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>venue_name, shop_pic, food_pic, shop_name, shop_link</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>user_id ,follow_user_id,user_name,icon</t>
+  </si>
+  <si>
+    <t>user_id ,follow_user_id</t>
+  </si>
+  <si>
+    <t>フォロー解除</t>
+  </si>
+  <si>
+    <t>jsp担当がSQL</t>
+  </si>
+  <si>
+    <t>杉本</t>
+  </si>
+  <si>
+    <t>☑</t>
+  </si>
+  <si>
+    <t>user_id,user_name,icon,follows(follow_user_id)</t>
+  </si>
+  <si>
+    <t>粟野</t>
+  </si>
+  <si>
+    <t>小倉</t>
+  </si>
+  <si>
+    <t>contributions.(id,pic_movie,text,created_at,user_id,user_name,icon),replies.(id,user_id,text), stars.id</t>
+  </si>
+  <si>
+    <t>初期表示(2メソッド)</t>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>土方</t>
+  </si>
+  <si>
+    <t>follow_user_id, users(user_id ,user_name,icon)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,8 +1571,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Yu Gothic"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF242424"/>
+      <name val="Yu Gothic"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1489,6 +1729,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1610,7 +1856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1771,6 +2017,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2089,11 +2353,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.149999999999999">
@@ -2503,20 +2767,20 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.149999999999999">
@@ -2533,7 +2797,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2588,22 +2852,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -2618,20 +2882,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2646,13 +2910,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -2672,13 +2936,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2698,13 +2962,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2724,13 +2988,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>500</v>
@@ -2750,13 +3014,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3">
         <v>50</v>
@@ -2779,7 +3043,7 @@
         <v>95</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>127</v>
@@ -2789,13 +3053,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
       </c>
     </row>
@@ -2807,7 +3071,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>127</v>
@@ -2817,13 +3081,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(F17&lt;&gt;""," primary key","")&amp;IF(G17&lt;&gt;""," auto_increment","")&amp;IF(H17&lt;&gt;""," not null","")&amp;IF(I17&lt;&gt;""," default "&amp;I17,"")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v>updated_at timestamp  default CURRENT_TIMESTAMP</v>
       </c>
     </row>
@@ -2865,7 +3129,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="L20" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2880,19 +3144,19 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.149999999999999">
@@ -2909,7 +3173,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2962,22 +3226,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -2992,20 +3256,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3020,13 +3284,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3044,13 +3308,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -3070,13 +3334,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -3087,7 +3351,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>recipe_pic varchar (100),</v>
       </c>
     </row>
@@ -3096,13 +3360,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>50</v>
@@ -3122,13 +3386,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="52">
         <v>500</v>
@@ -3151,7 +3415,7 @@
         <v>95</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>127</v>
@@ -3161,10 +3425,10 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -3179,7 +3443,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D17" s="49" t="s">
         <v>127</v>
@@ -3189,13 +3453,13 @@
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
       <c r="I17" s="49" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J17" s="49" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3223,20 +3487,20 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.149999999999999">
@@ -3253,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3307,22 +3571,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -3337,20 +3601,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3365,13 +3629,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3389,13 +3653,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3416,7 +3680,7 @@
         <v>95</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>127</v>
@@ -3426,10 +3690,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3444,7 +3708,7 @@
         <v>96</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>127</v>
@@ -3454,10 +3718,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L24" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3646,7 +3910,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3660,64 +3924,64 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A25" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.15">
       <c r="C1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="M1" t="s">
         <v>22</v>
@@ -3726,60 +3990,60 @@
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="13.15">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>116</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="13.15">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E3" s="42">
         <v>45454</v>
@@ -3788,7 +4052,7 @@
         <v>102</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>116</v>
@@ -3797,19 +4061,19 @@
         <v>117</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13.15">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>102</v>
@@ -3817,14 +4081,14 @@
     </row>
     <row r="5" spans="1:26" ht="13.15">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>102</v>
@@ -3832,185 +4096,185 @@
     </row>
     <row r="6" spans="1:26" ht="13.15">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.15">
       <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.15">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.15">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.15">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S10" t="s">
         <v>120</v>
       </c>
       <c r="T10" s="25" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.15">
       <c r="A11" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.15">
       <c r="A12" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K12" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V12" s="20" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.15">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M13" s="21" t="s">
         <v>22</v>
@@ -4019,10 +4283,10 @@
         <v>24</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.9" customHeight="1">
@@ -4030,104 +4294,104 @@
         <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.15">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.15">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="13.9" customHeight="1">
       <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" t="s">
-        <v>220</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="13.15">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="13.15">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T20" s="25" t="s">
         <v>121</v>
@@ -4135,7 +4399,7 @@
     </row>
     <row r="21" spans="1:20" ht="13.15">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="13.15"/>
@@ -4150,22 +4414,22 @@
         <v>16</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
         <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" t="s">
         <v>93</v>
@@ -4174,7 +4438,7 @@
         <v>94</v>
       </c>
       <c r="K33" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s">
         <v>95</v>
@@ -4188,7 +4452,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>86</v>
@@ -4197,22 +4461,22 @@
         <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I34" t="s">
         <v>121</v>
       </c>
       <c r="J34" s="37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K34" t="s">
         <v>95</v>
@@ -4235,7 +4499,7 @@
         <v>87</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F35" t="s">
         <v>95</v>
@@ -4258,16 +4522,16 @@
         <v>87</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="I36" t="s">
         <v>95</v>
@@ -4288,10 +4552,10 @@
         <v>86</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -4312,13 +4576,13 @@
         <v>86</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
         <v>95</v>
@@ -4338,19 +4602,19 @@
         <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I39" t="s">
         <v>95</v>
@@ -4370,19 +4634,19 @@
         <v>86</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I40" t="s">
         <v>95</v>
@@ -4405,7 +4669,7 @@
         <v>87</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="13.15"/>
@@ -4426,7 +4690,7 @@
         <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
         <v>88</v>
@@ -4444,13 +4708,13 @@
         <v>92</v>
       </c>
       <c r="K47" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="13.15">
@@ -4458,13 +4722,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
         <v>109</v>
@@ -4479,16 +4743,16 @@
         <v>112</v>
       </c>
       <c r="I48" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J48" t="s">
         <v>114</v>
       </c>
       <c r="K48" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.15" customHeight="1">
@@ -4502,16 +4766,16 @@
         <v>86</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.15">
@@ -4528,19 +4792,19 @@
         <v>87</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="13.15" customHeight="1">
@@ -4554,16 +4818,16 @@
         <v>86</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.5" customHeight="1">
@@ -4577,19 +4841,19 @@
         <v>86</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.15" customHeight="1">
@@ -4603,25 +4867,25 @@
         <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H53" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J53" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
@@ -4635,25 +4899,25 @@
         <v>86</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
@@ -4670,13 +4934,13 @@
         <v>87</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4685,7 +4949,1331 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6790A-0FA0-45CB-A806-DF1CBAE2BD0C}">
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75">
+      <c r="B3" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75">
+      <c r="C4" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75">
+      <c r="C5" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18.75">
+      <c r="C6" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18.75">
+      <c r="C7" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18.75">
+      <c r="C8" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75">
+      <c r="C9" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75">
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75">
+      <c r="C11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18.75">
+      <c r="C12" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18.75">
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75">
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1">
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1">
+      <c r="C16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="C17" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="C22" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="C23" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18.75">
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18.75">
+      <c r="C28" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18.75">
+      <c r="C29" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="C35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>286</v>
+      </c>
+      <c r="E37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="C43" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" t="s">
+        <v>291</v>
+      </c>
+      <c r="E45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="C46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75">
+      <c r="A55" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.75">
+      <c r="C56" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75">
+      <c r="C57" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75">
+      <c r="C58" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="C59" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="C61" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" t="s">
+        <v>241</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="C62" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E62" t="s">
+        <v>241</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="C63" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="E63" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="C64" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" t="s">
+        <v>281</v>
+      </c>
+      <c r="E65" t="s">
+        <v>282</v>
+      </c>
+      <c r="F65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18.75">
+      <c r="C66" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" t="s">
+        <v>300</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18.75">
+      <c r="C67" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18.75">
+      <c r="C68" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75">
+      <c r="C69" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H69" s="54"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" t="s">
+        <v>241</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>264</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="C72" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" t="s">
+        <v>304</v>
+      </c>
+      <c r="E73" t="s">
+        <v>241</v>
+      </c>
+      <c r="G73" s="54"/>
+    </row>
+    <row r="74" spans="1:8" ht="18.75">
+      <c r="B74" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E74" t="s">
+        <v>279</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18.75">
+      <c r="C75" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" t="s">
+        <v>280</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.149999999999999">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="39.6">
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table users (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8"/>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>user_id varchar (100) not null,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>user_name varchar (100) not null,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="26.45">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>password varchar (32),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="39.6">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>mail_address varchar (100)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="8"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="8"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="8"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="8"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="8"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="8"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="8"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="8"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="8"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="8"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="8"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="8"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="8"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="8"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="8"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6327AF-356A-4BB1-ABB0-F6F704A795B2}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -4698,14 +6286,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.149999999999999">
@@ -4744,7 +6332,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -4756,7 +6344,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -4774,22 +6362,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -4804,20 +6392,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4832,13 +6420,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -4846,11 +6434,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -4862,13 +6450,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -4876,7 +6464,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4890,13 +6478,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -4916,13 +6504,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -4942,13 +6530,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -4968,13 +6556,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -4994,23 +6582,23 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(F17&lt;&gt;""," primary key","")&amp;IF(G17&lt;&gt;""," auto_increment","")&amp;IF(H17&lt;&gt;""," not null","")&amp;IF(I17&lt;&gt;""," default "&amp;I17,"")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -5022,23 +6610,23 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L18" t="str">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(F18&lt;&gt;""," primary key","")&amp;IF(G18&lt;&gt;""," auto_increment","")&amp;IF(H18&lt;&gt;""," not null","")&amp;IF(I18&lt;&gt;""," default "&amp;I18,"")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -5245,551 +6833,6 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet3">
-    <tabColor theme="3" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.149999999999999">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="39.6">
-      <c r="G8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table users (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>user_id varchar (100) not null,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>user_name varchar (100) not null,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="26.45">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="3">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>password varchar (32),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="39.6">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>mail_address varchar (100)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="8"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="8"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="8"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="8"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="8"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="8"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="8"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="8"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="8"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="8"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="8"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="8"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="8"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="8"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5805,19 +6848,20 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="15" max="15" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.149999999999999">
@@ -5843,7 +6887,7 @@
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
         <v>88</v>
@@ -5861,10 +6905,10 @@
         <v>92</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5928,22 +6972,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="43" t="s">
         <v>14</v>
@@ -5958,10 +7002,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="44" t="s">
         <v>97</v>
@@ -5970,10 +7014,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -6002,7 +7046,7 @@
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44" t="s">
@@ -6021,10 +7065,10 @@
         <v>100</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="44">
         <v>20</v>
@@ -6032,7 +7076,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="45"/>
@@ -6052,7 +7096,7 @@
         <v>88</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="44">
         <v>30</v>
@@ -6060,12 +7104,12 @@
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
       <c r="H13" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L18" si="1">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L13:L16" si="1">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>user_name varchar (30) not null,</v>
       </c>
     </row>
@@ -6077,7 +7121,7 @@
         <v>102</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>97</v>
@@ -6100,13 +7144,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="44">
         <v>200</v>
@@ -6140,7 +7184,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -6150,7 +7194,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="50">
+      <c r="A17" s="44">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -6168,50 +7212,52 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v>question varchar (20) not null,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17" t="e">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(F17&lt;&gt;""," primary key","")&amp;IF(G17&lt;&gt;""," auto_increment","")&amp;IF(H17&lt;&gt;""," not null","")&amp;IF(I17&lt;&gt;""," default "&amp;I17,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5">
       <c r="A18" s="50">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="3">
-        <v>500</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v>mypage_link varchar (500),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="50">
+      <c r="I18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;""," primary key","")&amp;IF(#REF!&lt;&gt;""," auto_increment","")&amp;IF(#REF!&lt;&gt;""," not null","")&amp;IF(#REF!&lt;&gt;""," default "&amp;#REF!,"")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5">
+      <c r="A19" s="44">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>106</v>
@@ -6221,46 +7267,36 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L29" si="2">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(F19&lt;&gt;""," primary key","")&amp;IF(G19&lt;&gt;""," auto_increment","")&amp;IF(H19&lt;&gt;""," not null","")&amp;IF(I19&lt;&gt;""," default "&amp;I19,"")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="2">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(F18&lt;&gt;""," primary key","")&amp;IF(G18&lt;&gt;""," auto_increment","")&amp;IF(H18&lt;&gt;""," not null","")&amp;IF(I18&lt;&gt;""," default "&amp;I18,"")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2">
+    <row r="20" spans="1:12" ht="13.5">
+      <c r="A20" s="50">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="L20" t="str">
         <f t="shared" si="2"/>
         <v>updated_at timestamp  default CURRENT_TIMESTAMP</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2">
+    <row r="21" spans="1:12" ht="13.5">
+      <c r="A21" s="44">
         <v>12</v>
       </c>
       <c r="B21" s="3"/>
@@ -6277,8 +7313,8 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
+    <row r="22" spans="1:12" ht="13.5">
+      <c r="A22" s="50">
         <v>13</v>
       </c>
       <c r="B22" s="3"/>
@@ -6295,8 +7331,8 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
+    <row r="23" spans="1:12" ht="13.5">
+      <c r="A23" s="44">
         <v>14</v>
       </c>
       <c r="B23" s="3"/>
@@ -6313,8 +7349,8 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
+    <row r="24" spans="1:12" ht="13.5">
+      <c r="A24" s="50">
         <v>15</v>
       </c>
       <c r="B24" s="3"/>
@@ -6331,8 +7367,8 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
+    <row r="25" spans="1:12" ht="13.5">
+      <c r="A25" s="44">
         <v>16</v>
       </c>
       <c r="B25" s="3"/>
@@ -6349,8 +7385,8 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
+    <row r="26" spans="1:12" ht="13.5">
+      <c r="A26" s="50">
         <v>17</v>
       </c>
       <c r="B26" s="3"/>
@@ -6367,8 +7403,8 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
+    <row r="27" spans="1:12" ht="13.5">
+      <c r="A27" s="44">
         <v>18</v>
       </c>
       <c r="B27" s="3"/>
@@ -6385,8 +7421,8 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
+    <row r="28" spans="1:12" ht="13.5">
+      <c r="A28" s="50">
         <v>19</v>
       </c>
       <c r="B28" s="3"/>
@@ -6403,19 +7439,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+    <row r="29" spans="1:12" ht="13.5">
       <c r="L29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
@@ -6423,7 +7447,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6438,19 +7462,19 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.149999999999999">
@@ -6579,22 +7603,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -6609,17 +7633,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -6667,7 +7691,7 @@
         <v>126</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
@@ -6688,7 +7712,7 @@
         <v>95</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>127</v>
@@ -6698,10 +7722,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -6716,7 +7740,7 @@
         <v>96</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>127</v>
@@ -6726,10 +7750,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -6858,7 +7882,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(F21&lt;&gt;""," primary key","")&amp;IF(G21&lt;&gt;""," auto_increment","")&amp;IF(H21&lt;&gt;""," not null","")&amp;IF(I21&lt;&gt;""," default "&amp;I21,"")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7008,7 +8032,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7018,30 +8042,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720A5B4E-8316-461A-A65C-1D9053DF0346}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AEB453-A3A5-43DA-8ACA-B09BD5A1C578}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.149999999999999">
+    <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7055,7 +8079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7068,86 +8092,32 @@
       <c r="E3" s="5">
         <v>45454</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" t="s">
-        <v>130</v>
-      </c>
-      <c r="P3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
+      <c r="C5" t="s">
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7158,50 +8128,595 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table contributions (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>create table rikishies (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="44">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>pic varchar (100),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>rikishi_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3">
+        <v>500</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;""," primary key","")&amp;IF(#REF!&lt;&gt;""," auto_increment","")&amp;IF(#REF!&lt;&gt;""," not null","")&amp;IF(#REF!&lt;&gt;""," default "&amp;#REF!,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>rikishi_profile varchar (400),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>calender  ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>sumo_stable_name varchar (30),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(F17&lt;&gt;""," primary key","")&amp;IF(G17&lt;&gt;""," auto_increment","")&amp;IF(H17&lt;&gt;""," not null","")&amp;IF(I17&lt;&gt;""," default "&amp;I17,"")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:L29" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(F18&lt;&gt;""," primary key","")&amp;IF(G18&lt;&gt;""," auto_increment","")&amp;IF(H18&lt;&gt;""," not null","")&amp;IF(I18&lt;&gt;""," default "&amp;I18,"")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>updated_at timestamp  default CURRENT_TIMESTAMP</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.5">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.5">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.5">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.5">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.5">
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A35D81E-6578-41DB-80AD-FAC063B6F1E4}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.149999999999999">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table stars (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7211,18 +8726,18 @@
         <v>id int  primary key auto_increment,</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7232,21 +8747,21 @@
       <c r="J11" s="8"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>user_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>contribution_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7255,125 +8770,105 @@
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>rikishi_id int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13.5">
+        <f t="shared" si="0"/>
+        <v>user_id varchar ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>95</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="13.5">
+        <v>81</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3">
-        <v>140</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>text varchar (140) not null,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>updated_at timestamp  default CURRENT_TIMESTAMP</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="13.5">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7391,7 +8886,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7409,574 +8904,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="L19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="13.5"/>
-    <row r="22" spans="1:12" ht="13.5"/>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AEB453-A3A5-43DA-8ACA-B09BD5A1C578}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.149999999999999">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table rikishies (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="44">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L14" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>pic varchar (100),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>rikishi_name varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="3">
-        <v>500</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>sumo_association_link varchar (500),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3">
-        <v>500</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>rikishi_page_link varchar (500),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>rikishi_profile varchar (400),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>calender  ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="3">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(F17&lt;&gt;""," primary key","")&amp;IF(G17&lt;&gt;""," auto_increment","")&amp;IF(H17&lt;&gt;""," not null","")&amp;IF(I17&lt;&gt;""," default "&amp;I17,"")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>sumo_stable_name varchar (30),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(F18&lt;&gt;""," primary key","")&amp;IF(G18&lt;&gt;""," auto_increment","")&amp;IF(H18&lt;&gt;""," not null","")&amp;IF(I18&lt;&gt;""," default "&amp;I18,"")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" ref="L19:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(F19&lt;&gt;""," primary key","")&amp;IF(G19&lt;&gt;""," auto_increment","")&amp;IF(H19&lt;&gt;""," not null","")&amp;IF(I19&lt;&gt;""," default "&amp;I19,"")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v>updated_at timestamp  default CURRENT_TIMESTAMP</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7986,24 +8914,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A35D81E-6578-41DB-80AD-FAC063B6F1E4}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6519DD7-06F3-43CB-921D-F4244B2D0E83}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J14" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.149999999999999">
@@ -8020,7 +8948,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8042,7 +8970,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -8053,8 +8981,8 @@
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -8072,29 +9000,29 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table stars (</v>
+        <v>create table replies (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8102,26 +9030,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L18" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L19" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int  primary key auto_increment,</v>
       </c>
     </row>
@@ -8130,13 +9058,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -8154,13 +9082,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -8178,27 +9106,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>66</v>
+        <v>140</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
+        <v>text varchar (140),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8206,10 +9132,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>127</v>
@@ -8219,32 +9145,42 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>updated_at timestamp  default CURRENT_TIMESTAMP</v>
+        <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>updated_at timestamp  default CURRENT_TIMESTAMP</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8302,41 +9238,60 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="L19" t="s">
-        <v>73</v>
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="L20" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6519DD7-06F3-43CB-921D-F4244B2D0E83}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720A5B4E-8316-461A-A65C-1D9053DF0346}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.149999999999999">
+    <row r="1" spans="1:16" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8347,10 +9302,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8363,32 +9318,86 @@
       <c r="E3" s="5">
         <v>45454</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -8399,73 +9408,75 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table replies (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>create table contributions (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L19" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L18" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int  primary key auto_increment,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="44">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -8473,21 +9484,21 @@
       <c r="J11" s="8"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>contribution_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>user_id varchar (50),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -8496,73 +9507,75 @@
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>user_id int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>rikishi_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.5">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>text varchar (140),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13.5">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>66</v>
+        <v>156</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E14" s="3">
+        <v>140</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="H14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>text varchar (140) not null,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>127</v>
@@ -8572,37 +9585,47 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>updated_at timestamp  default CURRENT_TIMESTAMP</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>created_at timestamp  default CURRENT_TIMESTAMP,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13.5">
       <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="I16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8620,7 +9643,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8637,32 +9660,15 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="L20" t="s">
-        <v>73</v>
-      </c>
-    </row>
+      <c r="L19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5"/>
+    <row r="22" spans="1:12" ht="13.5"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8823,6 +9829,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8831,22 +9845,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4554F01-423F-43DC-A221-67E8DAC7274D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1993EE-F50F-432E-8E8D-5EAF99250D33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BA1680-1951-4B6B-9B02-BBB39116DE04}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BA1680-1951-4B6B-9B02-BBB39116DE04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1993EE-F50F-432E-8E8D-5EAF99250D33}"/>
 </file>